--- a/results/table1_all.xlsx
+++ b/results/table1_all.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N88"/>
+  <dimension ref="A1:N91"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1376,7 +1376,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Mechanical Ventilation (whole stay), n (%)</t>
+          <t>MV initiated in the cohort day, n (%)</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1389,12 +1389,12 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>1392 (56.9)</t>
+          <t>1214 (49.6)</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>6318 (59.6)</t>
+          <t>5432 (51.2)</t>
         </is>
       </c>
       <c r="F18" t="n">
@@ -1402,12 +1402,12 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>1220 (65.0)</t>
+          <t>79 (4.2)</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>5314 (67.0)</t>
+          <t>420 (5.3)</t>
         </is>
       </c>
       <c r="I18" t="n">
@@ -1415,12 +1415,12 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>1036 (70.6)</t>
+          <t>42 (2.9)</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>4508 (73.5)</t>
+          <t>199 (3.2)</t>
         </is>
       </c>
       <c r="L18" t="n">
@@ -1428,19 +1428,19 @@
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>920 (76.3)</t>
+          <t>33 (2.7)</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>3856 (79.1)</t>
+          <t>106 (2.2)</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>RRT (whole stay), n (%)</t>
+          <t>RRT initiated in the cohort day, n (%)</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1453,12 +1453,12 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>371 (15.2)</t>
+          <t>233 (9.5)</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>1027 (9.7)</t>
+          <t>507 (4.8)</t>
         </is>
       </c>
       <c r="F19" t="n">
@@ -1466,12 +1466,12 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>320 (17.0)</t>
+          <t>53 (2.8)</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>936 (11.8)</t>
+          <t>180 (2.3)</t>
         </is>
       </c>
       <c r="I19" t="n">
@@ -1479,12 +1479,12 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>280 (19.1)</t>
+          <t>27 (1.8)</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>829 (13.5)</t>
+          <t>109 (1.8)</t>
         </is>
       </c>
       <c r="L19" t="n">
@@ -1492,19 +1492,19 @@
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>250 (20.7)</t>
+          <t>19 (1.6)</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>728 (14.9)</t>
+          <t>52 (1.1)</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Vasopressors (whole stay), n (%)</t>
+          <t>Vasopressor initiated in the cohort day, n (%)</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1517,12 +1517,12 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>1181 (48.2)</t>
+          <t>1004 (41.0)</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>5932 (55.9)</t>
+          <t>5094 (48.0)</t>
         </is>
       </c>
       <c r="F20" t="n">
@@ -1530,12 +1530,12 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>987 (52.6)</t>
+          <t>82 (4.4)</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>4746 (59.8)</t>
+          <t>383 (4.8)</t>
         </is>
       </c>
       <c r="I20" t="n">
@@ -1543,12 +1543,12 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>830 (56.6)</t>
+          <t>38 (2.6)</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>3860 (63.0)</t>
+          <t>173 (2.8)</t>
         </is>
       </c>
       <c r="L20" t="n">
@@ -1556,24 +1556,24 @@
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>730 (60.6)</t>
+          <t>27 (2.2)</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>3212 (65.9)</t>
+          <t>96 (2.0)</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Insulin Transfusion (whole stay), n (%)</t>
+          <t>Mechanical Ventilation (whole stay), n (%)</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C21" t="n">
@@ -1581,7 +1581,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>1502 (61.4)</t>
+          <t>1392 (56.9)</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1594,12 +1594,12 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>1212 (64.5)</t>
+          <t>1220 (65.0)</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>4949 (62.4)</t>
+          <t>5314 (67.0)</t>
         </is>
       </c>
       <c r="I21" t="n">
@@ -1607,12 +1607,12 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>995 (67.8)</t>
+          <t>1036 (70.6)</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>3993 (65.1)</t>
+          <t>4508 (73.5)</t>
         </is>
       </c>
       <c r="L21" t="n">
@@ -1620,24 +1620,24 @@
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>853 (70.8)</t>
+          <t>920 (76.3)</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>3290 (67.5)</t>
+          <t>3856 (79.1)</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Blood Transufusion (whole stay), n (%)</t>
+          <t>RRT (whole stay), n (%)</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C22" t="n">
@@ -1645,12 +1645,12 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>256 (10.5)</t>
+          <t>371 (15.2)</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>1296 (12.2)</t>
+          <t>1027 (9.7)</t>
         </is>
       </c>
       <c r="F22" t="n">
@@ -1658,12 +1658,12 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>221 (11.8)</t>
+          <t>320 (17.0)</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>1058 (13.3)</t>
+          <t>936 (11.8)</t>
         </is>
       </c>
       <c r="I22" t="n">
@@ -1671,12 +1671,12 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>178 (12.1)</t>
+          <t>280 (19.1)</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>879 (14.3)</t>
+          <t>829 (13.5)</t>
         </is>
       </c>
       <c r="L22" t="n">
@@ -1684,7 +1684,7 @@
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>167 (13.9)</t>
+          <t>250 (20.7)</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
@@ -1696,12 +1696,12 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Fluids Received (whole stay), n (%)</t>
+          <t>Vasopressors (whole stay), n (%)</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C23" t="n">
@@ -1709,12 +1709,12 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2385 (97.4)</t>
+          <t>1181 (48.2)</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>10357 (97.7)</t>
+          <t>5932 (55.9)</t>
         </is>
       </c>
       <c r="F23" t="n">
@@ -1722,12 +1722,12 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>1845 (98.2)</t>
+          <t>987 (52.6)</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>7821 (98.6)</t>
+          <t>4746 (59.8)</t>
         </is>
       </c>
       <c r="I23" t="n">
@@ -1735,12 +1735,12 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>1449 (98.8)</t>
+          <t>830 (56.6)</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>6078 (99.2)</t>
+          <t>3860 (63.0)</t>
         </is>
       </c>
       <c r="L23" t="n">
@@ -1748,19 +1748,19 @@
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>1197 (99.3)</t>
+          <t>730 (60.6)</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>4850 (99.5)</t>
+          <t>3212 (65.9)</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Hypertension, n (%)</t>
+          <t>Insulin Transfusion (whole stay), n (%)</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1773,12 +1773,12 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>1704 (69.6)</t>
+          <t>1502 (61.4)</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>6977 (65.8)</t>
+          <t>6318 (59.6)</t>
         </is>
       </c>
       <c r="F24" t="n">
@@ -1786,12 +1786,12 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>1328 (70.7)</t>
+          <t>1212 (64.5)</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>5205 (65.6)</t>
+          <t>4949 (62.4)</t>
         </is>
       </c>
       <c r="I24" t="n">
@@ -1799,12 +1799,12 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>1044 (71.2)</t>
+          <t>995 (67.8)</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>3970 (64.8)</t>
+          <t>3993 (65.1)</t>
         </is>
       </c>
       <c r="L24" t="n">
@@ -1812,19 +1812,19 @@
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>861 (71.5)</t>
+          <t>853 (70.8)</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>3165 (65.0)</t>
+          <t>3290 (67.5)</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Congestive Heart Failure, n (%)</t>
+          <t>Blood Transufusion (whole stay), n (%)</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1837,12 +1837,12 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>915 (37.4)</t>
+          <t>256 (10.5)</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>3851 (36.3)</t>
+          <t>1296 (12.2)</t>
         </is>
       </c>
       <c r="F25" t="n">
@@ -1850,12 +1850,12 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>721 (38.4)</t>
+          <t>221 (11.8)</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>2989 (37.7)</t>
+          <t>1058 (13.3)</t>
         </is>
       </c>
       <c r="I25" t="n">
@@ -1863,12 +1863,12 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>585 (39.9)</t>
+          <t>178 (12.1)</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>2348 (38.3)</t>
+          <t>879 (14.3)</t>
         </is>
       </c>
       <c r="L25" t="n">
@@ -1876,19 +1876,19 @@
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>481 (39.9)</t>
+          <t>167 (13.9)</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>1884 (38.7)</t>
+          <t>728 (14.9)</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>COPD, n (%)</t>
+          <t>Fluids Received (whole stay), n (%)</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1901,12 +1901,12 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>562 (23.0)</t>
+          <t>2385 (97.4)</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>2623 (24.7)</t>
+          <t>10357 (97.7)</t>
         </is>
       </c>
       <c r="F26" t="n">
@@ -1914,12 +1914,12 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>435 (23.2)</t>
+          <t>1845 (98.2)</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>2002 (25.2)</t>
+          <t>7821 (98.6)</t>
         </is>
       </c>
       <c r="I26" t="n">
@@ -1927,12 +1927,12 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>362 (24.7)</t>
+          <t>1449 (98.8)</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>1567 (25.6)</t>
+          <t>6078 (99.2)</t>
         </is>
       </c>
       <c r="L26" t="n">
@@ -1940,19 +1940,19 @@
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>299 (24.8)</t>
+          <t>1197 (99.3)</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>1262 (25.9)</t>
+          <t>4850 (99.5)</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Asthma, n (%)</t>
+          <t>Hypertension, n (%)</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1965,12 +1965,12 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>34 (1.4)</t>
+          <t>1704 (69.6)</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>152 (1.4)</t>
+          <t>6977 (65.8)</t>
         </is>
       </c>
       <c r="F27" t="n">
@@ -1978,12 +1978,12 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>24 (1.3)</t>
+          <t>1328 (70.7)</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>119 (1.5)</t>
+          <t>5205 (65.6)</t>
         </is>
       </c>
       <c r="I27" t="n">
@@ -1991,12 +1991,12 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>20 (1.4)</t>
+          <t>1044 (71.2)</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>103 (1.7)</t>
+          <t>3970 (64.8)</t>
         </is>
       </c>
       <c r="L27" t="n">
@@ -2004,19 +2004,19 @@
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>16 (1.3)</t>
+          <t>861 (71.5)</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>85 (1.7)</t>
+          <t>3165 (65.0)</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Coronary Artery Disease, n (%)</t>
+          <t>Congestive Heart Failure, n (%)</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -2029,12 +2029,12 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>754 (30.8)</t>
+          <t>915 (37.4)</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>4137 (39.0)</t>
+          <t>3851 (36.3)</t>
         </is>
       </c>
       <c r="F28" t="n">
@@ -2042,12 +2042,12 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>573 (30.5)</t>
+          <t>721 (38.4)</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>3011 (38.0)</t>
+          <t>2989 (37.7)</t>
         </is>
       </c>
       <c r="I28" t="n">
@@ -2055,12 +2055,12 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>436 (29.7)</t>
+          <t>585 (39.9)</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>2268 (37.0)</t>
+          <t>2348 (38.3)</t>
         </is>
       </c>
       <c r="L28" t="n">
@@ -2068,272 +2068,308 @@
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>347 (28.8)</t>
+          <t>481 (39.9)</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>1776 (36.5)</t>
+          <t>1884 (38.7)</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
+          <t>COPD, n (%)</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>562 (23.0)</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>2623 (24.7)</t>
+        </is>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>435 (23.2)</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>2002 (25.2)</t>
+        </is>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>362 (24.7)</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>1567 (25.6)</t>
+        </is>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>299 (24.8)</t>
+        </is>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>1262 (25.9)</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Asthma, n (%)</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>0</v>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>34 (1.4)</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>152 (1.4)</t>
+        </is>
+      </c>
+      <c r="F30" t="n">
+        <v>0</v>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>24 (1.3)</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>119 (1.5)</t>
+        </is>
+      </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>20 (1.4)</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>103 (1.7)</t>
+        </is>
+      </c>
+      <c r="L30" t="n">
+        <v>0</v>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>16 (1.3)</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>85 (1.7)</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Coronary Artery Disease, n (%)</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>0</v>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>754 (30.8)</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>4137 (39.0)</t>
+        </is>
+      </c>
+      <c r="F31" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>573 (30.5)</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>3011 (38.0)</t>
+        </is>
+      </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>436 (29.7)</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>2268 (37.0)</t>
+        </is>
+      </c>
+      <c r="L31" t="n">
+        <v>0</v>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>347 (28.8)</t>
+        </is>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>1776 (36.5)</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
           <t>CKD Stage, n (%)</t>
         </is>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="B32" t="inlineStr">
         <is>
           <t>1.0</t>
         </is>
       </c>
-      <c r="C29" t="n">
-        <v>0</v>
-      </c>
-      <c r="D29" t="inlineStr">
+      <c r="C32" t="n">
+        <v>0</v>
+      </c>
+      <c r="D32" t="inlineStr">
         <is>
           <t>3 (0.1)</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>2 (0.0)</t>
         </is>
       </c>
-      <c r="F29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G29" t="inlineStr">
+      <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="inlineStr">
         <is>
           <t>3 (0.2)</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr"/>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="inlineStr">
+      <c r="H32" t="inlineStr"/>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="inlineStr">
         <is>
           <t>1 (0.1)</t>
         </is>
       </c>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>0</v>
-      </c>
-      <c r="M29" t="inlineStr">
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="inlineStr">
         <is>
           <t>1 (0.1)</t>
         </is>
       </c>
-      <c r="N29" t="inlineStr"/>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr"/>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>2.0</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr"/>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>19 (0.8)</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>68 (0.6)</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr"/>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>11 (0.6)</t>
-        </is>
-      </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>53 (0.7)</t>
-        </is>
-      </c>
-      <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr">
-        <is>
-          <t>9 (0.6)</t>
-        </is>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>42 (0.7)</t>
-        </is>
-      </c>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="inlineStr">
-        <is>
-          <t>8 (0.7)</t>
-        </is>
-      </c>
-      <c r="N30" t="inlineStr">
-        <is>
-          <t>32 (0.7)</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr"/>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>3.0</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr"/>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>161 (6.6)</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>532 (5.0)</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr"/>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>129 (6.9)</t>
-        </is>
-      </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>406 (5.1)</t>
-        </is>
-      </c>
-      <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr">
-        <is>
-          <t>114 (7.8)</t>
-        </is>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>296 (4.8)</t>
-        </is>
-      </c>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="inlineStr">
-        <is>
-          <t>95 (7.9)</t>
-        </is>
-      </c>
-      <c r="N31" t="inlineStr">
-        <is>
-          <t>239 (4.9)</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr"/>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>4.0</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr"/>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>62 (2.5)</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>185 (1.7)</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr"/>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>49 (2.6)</t>
-        </is>
-      </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>146 (1.8)</t>
-        </is>
-      </c>
-      <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr">
-        <is>
-          <t>41 (2.8)</t>
-        </is>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>114 (1.9)</t>
-        </is>
-      </c>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="inlineStr">
-        <is>
-          <t>34 (2.8)</t>
-        </is>
-      </c>
-      <c r="N32" t="inlineStr">
-        <is>
-          <t>90 (1.8)</t>
-        </is>
-      </c>
+      <c r="N32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr"/>
       <c r="B33" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="C33" t="inlineStr"/>
       <c r="D33" t="inlineStr">
         <is>
-          <t>264 (10.8)</t>
+          <t>19 (0.8)</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>461 (4.3)</t>
+          <t>68 (0.6)</t>
         </is>
       </c>
       <c r="F33" t="inlineStr"/>
       <c r="G33" t="inlineStr">
         <is>
-          <t>207 (11.0)</t>
+          <t>11 (0.6)</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>383 (4.8)</t>
+          <t>53 (0.7)</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr">
         <is>
-          <t>169 (11.5)</t>
+          <t>9 (0.6)</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>307 (5.0)</t>
+          <t>42 (0.7)</t>
         </is>
       </c>
       <c r="L33" t="inlineStr"/>
       <c r="M33" t="inlineStr">
         <is>
-          <t>143 (11.9)</t>
+          <t>8 (0.7)</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>245 (5.0)</t>
+          <t>32 (0.7)</t>
         </is>
       </c>
     </row>
@@ -2341,115 +2377,103 @@
       <c r="A34" t="inlineStr"/>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>3.0</t>
         </is>
       </c>
       <c r="C34" t="inlineStr"/>
       <c r="D34" t="inlineStr">
         <is>
-          <t>1939 (79.2)</t>
+          <t>161 (6.6)</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>9355 (88.2)</t>
+          <t>532 (5.0)</t>
         </is>
       </c>
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr">
         <is>
-          <t>1479 (78.8)</t>
+          <t>129 (6.9)</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>6944 (87.5)</t>
+          <t>406 (5.1)</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr">
         <is>
-          <t>1133 (77.2)</t>
+          <t>114 (7.8)</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>5371 (87.6)</t>
+          <t>296 (4.8)</t>
         </is>
       </c>
       <c r="L34" t="inlineStr"/>
       <c r="M34" t="inlineStr">
         <is>
-          <t>924 (76.7)</t>
+          <t>95 (7.9)</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>4266 (87.6)</t>
+          <t>239 (4.9)</t>
         </is>
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>Diabetes Type, n (%)</t>
-        </is>
-      </c>
+      <c r="A35" t="inlineStr"/>
       <c r="B35" t="inlineStr">
         <is>
-          <t>1.0</t>
-        </is>
-      </c>
-      <c r="C35" t="n">
-        <v>0</v>
-      </c>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr"/>
       <c r="D35" t="inlineStr">
         <is>
-          <t>75 (3.1)</t>
+          <t>62 (2.5)</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>300 (2.8)</t>
-        </is>
-      </c>
-      <c r="F35" t="n">
-        <v>0</v>
-      </c>
+          <t>185 (1.7)</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr">
         <is>
-          <t>62 (3.3)</t>
+          <t>49 (2.6)</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>226 (2.8)</t>
-        </is>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
+          <t>146 (1.8)</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr">
         <is>
-          <t>48 (3.3)</t>
+          <t>41 (2.8)</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>164 (2.7)</t>
-        </is>
-      </c>
-      <c r="L35" t="n">
-        <v>0</v>
-      </c>
+          <t>114 (1.9)</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr"/>
       <c r="M35" t="inlineStr">
         <is>
-          <t>35 (2.9)</t>
+          <t>34 (2.8)</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>138 (2.8)</t>
+          <t>90 (1.8)</t>
         </is>
       </c>
     </row>
@@ -2457,51 +2481,51 @@
       <c r="A36" t="inlineStr"/>
       <c r="B36" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="C36" t="inlineStr"/>
       <c r="D36" t="inlineStr">
         <is>
-          <t>986 (40.3)</t>
+          <t>264 (10.8)</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>2962 (27.9)</t>
+          <t>461 (4.3)</t>
         </is>
       </c>
       <c r="F36" t="inlineStr"/>
       <c r="G36" t="inlineStr">
         <is>
-          <t>747 (39.8)</t>
+          <t>207 (11.0)</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>2226 (28.1)</t>
+          <t>383 (4.8)</t>
         </is>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr">
         <is>
-          <t>597 (40.7)</t>
+          <t>169 (11.5)</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>1709 (27.9)</t>
+          <t>307 (5.0)</t>
         </is>
       </c>
       <c r="L36" t="inlineStr"/>
       <c r="M36" t="inlineStr">
         <is>
-          <t>486 (40.3)</t>
+          <t>143 (11.9)</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>1359 (27.9)</t>
+          <t>245 (5.0)</t>
         </is>
       </c>
     </row>
@@ -2515,52 +2539,52 @@
       <c r="C37" t="inlineStr"/>
       <c r="D37" t="inlineStr">
         <is>
-          <t>1387 (56.7)</t>
+          <t>1939 (79.2)</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>7341 (69.2)</t>
+          <t>9355 (88.2)</t>
         </is>
       </c>
       <c r="F37" t="inlineStr"/>
       <c r="G37" t="inlineStr">
         <is>
-          <t>1069 (56.9)</t>
+          <t>1479 (78.8)</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>5480 (69.1)</t>
+          <t>6944 (87.5)</t>
         </is>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr">
         <is>
-          <t>822 (56.0)</t>
+          <t>1133 (77.2)</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>4257 (69.4)</t>
+          <t>5371 (87.6)</t>
         </is>
       </c>
       <c r="L37" t="inlineStr"/>
       <c r="M37" t="inlineStr">
         <is>
-          <t>684 (56.8)</t>
+          <t>924 (76.7)</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>3375 (69.3)</t>
+          <t>4266 (87.6)</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Connective Tissue Disease, n (%)</t>
+          <t>Diabetes Type, n (%)</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -2573,12 +2597,12 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>117 (4.8)</t>
+          <t>75 (3.1)</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>472 (4.5)</t>
+          <t>300 (2.8)</t>
         </is>
       </c>
       <c r="F38" t="n">
@@ -2586,12 +2610,12 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>91 (4.8)</t>
+          <t>62 (3.3)</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>374 (4.7)</t>
+          <t>226 (2.8)</t>
         </is>
       </c>
       <c r="I38" t="n">
@@ -2599,12 +2623,12 @@
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>70 (4.8)</t>
+          <t>48 (3.3)</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>289 (4.7)</t>
+          <t>164 (2.7)</t>
         </is>
       </c>
       <c r="L38" t="n">
@@ -2612,147 +2636,123 @@
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>52 (4.3)</t>
+          <t>35 (2.9)</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>225 (4.6)</t>
+          <t>138 (2.8)</t>
         </is>
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>Pneumonia, n (%)</t>
-        </is>
-      </c>
+      <c r="A39" t="inlineStr"/>
       <c r="B39" t="inlineStr">
         <is>
-          <t>1.0</t>
-        </is>
-      </c>
-      <c r="C39" t="n">
-        <v>0</v>
-      </c>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr"/>
       <c r="D39" t="inlineStr">
         <is>
-          <t>139 (5.7)</t>
+          <t>986 (40.3)</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>507 (4.8)</t>
-        </is>
-      </c>
-      <c r="F39" t="n">
-        <v>0</v>
-      </c>
+          <t>2962 (27.9)</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr"/>
       <c r="G39" t="inlineStr">
         <is>
-          <t>97 (5.2)</t>
+          <t>747 (39.8)</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>412 (5.2)</t>
-        </is>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
+          <t>2226 (28.1)</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr">
         <is>
-          <t>83 (5.7)</t>
+          <t>597 (40.7)</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>339 (5.5)</t>
-        </is>
-      </c>
-      <c r="L39" t="n">
-        <v>0</v>
-      </c>
+          <t>1709 (27.9)</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr"/>
       <c r="M39" t="inlineStr">
         <is>
-          <t>74 (6.1)</t>
+          <t>486 (40.3)</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>287 (5.9)</t>
+          <t>1359 (27.9)</t>
         </is>
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>Urinary Tract Infection, n (%)</t>
-        </is>
-      </c>
+      <c r="A40" t="inlineStr"/>
       <c r="B40" t="inlineStr">
         <is>
-          <t>1.0</t>
-        </is>
-      </c>
-      <c r="C40" t="n">
-        <v>0</v>
-      </c>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr"/>
       <c r="D40" t="inlineStr">
         <is>
-          <t>15 (0.6)</t>
+          <t>1387 (56.7)</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>84 (0.8)</t>
-        </is>
-      </c>
-      <c r="F40" t="n">
-        <v>0</v>
-      </c>
+          <t>7341 (69.2)</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr">
         <is>
-          <t>12 (0.6)</t>
+          <t>1069 (56.9)</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>58 (0.7)</t>
-        </is>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
+          <t>5480 (69.1)</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr">
         <is>
-          <t>11 (0.7)</t>
+          <t>822 (56.0)</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>38 (0.6)</t>
-        </is>
-      </c>
-      <c r="L40" t="n">
-        <v>0</v>
-      </c>
+          <t>4257 (69.4)</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr"/>
       <c r="M40" t="inlineStr">
         <is>
-          <t>8 (0.7)</t>
+          <t>684 (56.8)</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>29 (0.6)</t>
+          <t>3375 (69.3)</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Biliary Tract Infection, n (%)</t>
+          <t>Connective Tissue Disease, n (%)</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -2765,12 +2765,12 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>2 (0.1)</t>
+          <t>117 (4.8)</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>20 (0.2)</t>
+          <t>472 (4.5)</t>
         </is>
       </c>
       <c r="F41" t="n">
@@ -2778,37 +2778,45 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>1 (0.1)</t>
+          <t>91 (4.8)</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>13 (0.2)</t>
+          <t>374 (4.7)</t>
         </is>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="inlineStr"/>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>70 (4.8)</t>
+        </is>
+      </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>11 (0.2)</t>
+          <t>289 (4.7)</t>
         </is>
       </c>
       <c r="L41" t="n">
         <v>0</v>
       </c>
-      <c r="M41" t="inlineStr"/>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>52 (4.3)</t>
+        </is>
+      </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>9 (0.2)</t>
+          <t>225 (4.6)</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Skin Infection, n (%)</t>
+          <t>Pneumonia, n (%)</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -2821,12 +2829,12 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>4 (0.2)</t>
+          <t>139 (5.7)</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>21 (0.2)</t>
+          <t>507 (4.8)</t>
         </is>
       </c>
       <c r="F42" t="n">
@@ -2834,12 +2842,12 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>2 (0.1)</t>
+          <t>97 (5.2)</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>9 (0.1)</t>
+          <t>412 (5.2)</t>
         </is>
       </c>
       <c r="I42" t="n">
@@ -2847,12 +2855,12 @@
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>2 (0.1)</t>
+          <t>83 (5.7)</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>7 (0.1)</t>
+          <t>339 (5.5)</t>
         </is>
       </c>
       <c r="L42" t="n">
@@ -2860,33 +2868,37 @@
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>2 (0.2)</t>
+          <t>74 (6.1)</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>6 (0.1)</t>
+          <t>287 (5.9)</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Age, median [Q1,Q3]</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr"/>
+          <t>Urinary Tract Infection, n (%)</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>64 [52,75]</t>
+          <t>15 (0.6)</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>68 [58,78]</t>
+          <t>84 (0.8)</t>
         </is>
       </c>
       <c r="F43" t="n">
@@ -2894,12 +2906,12 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>64 [51,75]</t>
+          <t>12 (0.6)</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>68 [57,78]</t>
+          <t>58 (0.7)</t>
         </is>
       </c>
       <c r="I43" t="n">
@@ -2907,12 +2919,12 @@
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>64 [51,74]</t>
+          <t>11 (0.7)</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>67 [57,77]</t>
+          <t>38 (0.6)</t>
         </is>
       </c>
       <c r="L43" t="n">
@@ -2920,624 +2932,624 @@
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>64 [51,74]</t>
+          <t>8 (0.7)</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>67 [56,77]</t>
+          <t>29 (0.6)</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>ICU LOS (days, if deceased), median [Q1,Q3]</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr"/>
+          <t>Biliary Tract Infection, n (%)</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
       <c r="C44" t="n">
-        <v>10855</v>
+        <v>0</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>5.23 [3.23,8.99]</t>
+          <t>2 (0.1)</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>5.38 [3.29,9.38]</t>
+          <t>20 (0.2)</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>7976</v>
+        <v>0</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>6.65 [4.30,10.23]</t>
+          <t>1 (0.1)</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>6.63 [4.37,10.63]</t>
+          <t>13 (0.2)</t>
         </is>
       </c>
       <c r="I44" t="n">
-        <v>6072</v>
-      </c>
-      <c r="J44" t="inlineStr">
-        <is>
-          <t>7.63 [5.44,11.84]</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr">
         <is>
-          <t>7.88 [5.54,11.83]</t>
+          <t>11 (0.2)</t>
         </is>
       </c>
       <c r="L44" t="n">
-        <v>4785</v>
-      </c>
-      <c r="M44" t="inlineStr">
-        <is>
-          <t>8.58 [6.63,12.65]</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
       <c r="N44" t="inlineStr">
         <is>
-          <t>9.00 [6.63,13.07]</t>
+          <t>9 (0.2)</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>ICU LOS (days, if survived), median [Q1,Q3]</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr"/>
+          <t>Skin Infection, n (%)</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
       <c r="C45" t="n">
-        <v>2196</v>
+        <v>0</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>4.17 [2.83,7.71]</t>
+          <t>4 (0.2)</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>4.08 [2.79,7.17]</t>
+          <t>21 (0.2)</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>1834</v>
+        <v>0</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>5.67 [3.92,9.84]</t>
+          <t>2 (0.1)</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>5.46 [3.92,9.04]</t>
+          <t>9 (0.1)</t>
         </is>
       </c>
       <c r="I45" t="n">
-        <v>1525</v>
+        <v>0</v>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>7.21 [5.08,11.83]</t>
+          <t>2 (0.1)</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>7.04 [5.04,11.01]</t>
+          <t>7 (0.1)</t>
         </is>
       </c>
       <c r="L45" t="n">
-        <v>1292</v>
+        <v>0</v>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>8.96 [6.25,13.42]</t>
+          <t>2 (0.2)</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>8.48 [6.25,12.96]</t>
+          <t>6 (0.1)</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Hospital LOS (days, if deceased), median [Q1,Q3]</t>
+          <t>Age, median [Q1,Q3]</t>
         </is>
       </c>
       <c r="B46" t="inlineStr"/>
       <c r="C46" t="n">
-        <v>10855</v>
+        <v>0</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>10.00 [6.00,19.00]</t>
+          <t>64 [52,75]</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>11.00 [6.00,18.75]</t>
+          <t>68 [58,78]</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>7976</v>
+        <v>0</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>11.00 [7.00,19.75]</t>
+          <t>64 [51,75]</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>12.00 [7.00,19.00]</t>
+          <t>68 [57,78]</t>
         </is>
       </c>
       <c r="I46" t="n">
-        <v>6072</v>
+        <v>0</v>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>13.00 [8.00,22.00]</t>
+          <t>64 [51,74]</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>13.00 [8.00,21.00]</t>
+          <t>67 [57,77]</t>
         </is>
       </c>
       <c r="L46" t="n">
-        <v>4785</v>
+        <v>0</v>
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>14.00 [9.00,22.00]</t>
+          <t>64 [51,74]</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>14.00 [9.00,21.00]</t>
+          <t>67 [56,77]</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Hospital LOS (days, if survived), median [Q1,Q3]</t>
+          <t>ICU LOS (days, if deceased), median [Q1,Q3]</t>
         </is>
       </c>
       <c r="B47" t="inlineStr"/>
       <c r="C47" t="n">
-        <v>2196</v>
+        <v>10855</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>12.00 [7.00,20.00]</t>
+          <t>5.23 [3.23,8.99]</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>11.00 [7.00,18.00]</t>
+          <t>5.38 [3.29,9.38]</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>1834</v>
+        <v>7976</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>14.00 [9.00,23.00]</t>
+          <t>6.65 [4.30,10.23]</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>13.00 [9.00,21.00]</t>
+          <t>6.63 [4.37,10.63]</t>
         </is>
       </c>
       <c r="I47" t="n">
-        <v>1525</v>
+        <v>6072</v>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>16.00 [11.00,25.00]</t>
+          <t>7.63 [5.44,11.84]</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>15.00 [10.00,23.00]</t>
+          <t>7.88 [5.54,11.83]</t>
         </is>
       </c>
       <c r="L47" t="n">
-        <v>1292</v>
+        <v>4785</v>
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>18.00 [12.00,27.00]</t>
+          <t>8.58 [6.63,12.65]</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>17.00 [12.00,25.00]</t>
+          <t>9.00 [6.63,13.07]</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Charlson Comorbidity Index, median [Q1,Q3]</t>
+          <t>ICU LOS (days, if survived), median [Q1,Q3]</t>
         </is>
       </c>
       <c r="B48" t="inlineStr"/>
       <c r="C48" t="n">
-        <v>0</v>
+        <v>2196</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>6 [4,8]</t>
+          <t>4.17 [2.83,7.71]</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>6 [4,8]</t>
+          <t>4.08 [2.79,7.17]</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>0</v>
+        <v>1834</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>6 [4,8]</t>
+          <t>5.67 [3.92,9.84]</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>6 [4,8]</t>
+          <t>5.46 [3.92,9.04]</t>
         </is>
       </c>
       <c r="I48" t="n">
-        <v>0</v>
+        <v>1525</v>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>6 [4,8]</t>
+          <t>7.21 [5.08,11.83]</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>6 [4,8]</t>
+          <t>7.04 [5.04,11.01]</t>
         </is>
       </c>
       <c r="L48" t="n">
-        <v>0</v>
+        <v>1292</v>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>6 [4,9]</t>
+          <t>8.96 [6.25,13.42]</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>6 [4,8]</t>
+          <t>8.48 [6.25,12.96]</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>SOFA Score (admission), median [Q1,Q3]</t>
+          <t>Hospital LOS (days, if deceased), median [Q1,Q3]</t>
         </is>
       </c>
       <c r="B49" t="inlineStr"/>
       <c r="C49" t="n">
-        <v>0</v>
+        <v>10855</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>6 [4,8]</t>
+          <t>10.00 [6.00,19.00]</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>5 [3,8]</t>
+          <t>11.00 [6.00,18.75]</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>0</v>
+        <v>7976</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>6 [4,9]</t>
+          <t>11.00 [7.00,19.75]</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>6 [4,9]</t>
+          <t>12.00 [7.00,19.00]</t>
         </is>
       </c>
       <c r="I49" t="n">
-        <v>0</v>
+        <v>6072</v>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>6 [4,10]</t>
+          <t>13.00 [8.00,22.00]</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>6 [4,9]</t>
+          <t>13.00 [8.00,21.00]</t>
         </is>
       </c>
       <c r="L49" t="n">
-        <v>0</v>
+        <v>4785</v>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>6 [4,10]</t>
+          <t>14.00 [9.00,22.00]</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>6 [4,9]</t>
+          <t>14.00 [9.00,21.00]</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>SOFA: Respiratory (admission), median [Q1,Q3]</t>
+          <t>Hospital LOS (days, if survived), median [Q1,Q3]</t>
         </is>
       </c>
       <c r="B50" t="inlineStr"/>
       <c r="C50" t="n">
-        <v>4756</v>
+        <v>2196</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>2 [1,3]</t>
+          <t>12.00 [7.00,20.00]</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>2 [1,3]</t>
+          <t>11.00 [7.00,18.00]</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>3187</v>
+        <v>1834</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>2 [1,3]</t>
+          <t>14.00 [9.00,23.00]</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>2 [2,3]</t>
+          <t>13.00 [9.00,21.00]</t>
         </is>
       </c>
       <c r="I50" t="n">
-        <v>2265</v>
+        <v>1525</v>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>2 [1,4]</t>
+          <t>16.00 [11.00,25.00]</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>2 [2,3]</t>
+          <t>15.00 [10.00,23.00]</t>
         </is>
       </c>
       <c r="L50" t="n">
-        <v>1680</v>
+        <v>1292</v>
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>2 [1,4]</t>
+          <t>18.00 [12.00,27.00]</t>
         </is>
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>3 [2,3]</t>
+          <t>17.00 [12.00,25.00]</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>SOFA: Coagulation (admission), median [Q1,Q3]</t>
+          <t>Charlson Comorbidity Index, median [Q1,Q3]</t>
         </is>
       </c>
       <c r="B51" t="inlineStr"/>
       <c r="C51" t="n">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>0 [0,1]</t>
+          <t>6 [4,8]</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>0 [0,1]</t>
+          <t>6 [4,8]</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>0 [0,1]</t>
+          <t>6 [4,8]</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>0 [0,1]</t>
+          <t>6 [4,8]</t>
         </is>
       </c>
       <c r="I51" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>0 [0,1]</t>
+          <t>6 [4,8]</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>0 [0,1]</t>
+          <t>6 [4,8]</t>
         </is>
       </c>
       <c r="L51" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>0 [0,1]</t>
+          <t>6 [4,9]</t>
         </is>
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>0 [0,1]</t>
+          <t>6 [4,8]</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>SOFA: Liver (admission), median [Q1,Q3]</t>
+          <t>SOFA Score (admission), median [Q1,Q3]</t>
         </is>
       </c>
       <c r="B52" t="inlineStr"/>
       <c r="C52" t="n">
-        <v>5163</v>
+        <v>0</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>0 [0,1]</t>
+          <t>6 [4,8]</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>0 [0,1]</t>
+          <t>5 [3,8]</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>3716</v>
+        <v>0</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>0 [0,1]</t>
+          <t>6 [4,9]</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>0 [0,1]</t>
+          <t>6 [4,9]</t>
         </is>
       </c>
       <c r="I52" t="n">
-        <v>2789</v>
+        <v>0</v>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>0 [0,1]</t>
+          <t>6 [4,10]</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>0 [0,1]</t>
+          <t>6 [4,9]</t>
         </is>
       </c>
       <c r="L52" t="n">
-        <v>2157</v>
+        <v>0</v>
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>0 [0,1]</t>
+          <t>6 [4,10]</t>
         </is>
       </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t>0 [0,1]</t>
+          <t>6 [4,9]</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>SOFA: Cardiovascular (admission), median [Q1,Q3]</t>
+          <t>SOFA: Respiratory (admission), median [Q1,Q3]</t>
         </is>
       </c>
       <c r="B53" t="inlineStr"/>
       <c r="C53" t="n">
-        <v>18</v>
+        <v>4756</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>1 [1,3]</t>
+          <t>2 [1,3]</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>1 [1,3]</t>
+          <t>2 [1,3]</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>17</v>
+        <v>3187</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>1 [1,3]</t>
+          <t>2 [1,3]</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>1 [1,3]</t>
+          <t>2 [2,3]</t>
         </is>
       </c>
       <c r="I53" t="n">
-        <v>17</v>
+        <v>2265</v>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>1 [1,4]</t>
+          <t>2 [1,4]</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>1 [1,4]</t>
+          <t>2 [2,3]</t>
         </is>
       </c>
       <c r="L53" t="n">
-        <v>17</v>
+        <v>1680</v>
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>1 [1,4]</t>
+          <t>2 [1,4]</t>
         </is>
       </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t>1 [1,4]</t>
+          <t>3 [2,3]</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>SOFA: CNS (admission), median [Q1,Q3]</t>
+          <t>SOFA: Coagulation (admission), median [Q1,Q3]</t>
         </is>
       </c>
       <c r="B54" t="inlineStr"/>
       <c r="C54" t="n">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3550,7 +3562,7 @@
         </is>
       </c>
       <c r="F54" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
@@ -3563,7 +3575,7 @@
         </is>
       </c>
       <c r="I54" t="n">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="J54" t="inlineStr">
         <is>
@@ -3576,11 +3588,11 @@
         </is>
       </c>
       <c r="L54" t="n">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>0 [0,2]</t>
+          <t>0 [0,1]</t>
         </is>
       </c>
       <c r="N54" t="inlineStr">
@@ -3592,247 +3604,247 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>SOFA: Renal (admission), median [Q1,Q3]</t>
+          <t>SOFA: Liver (admission), median [Q1,Q3]</t>
         </is>
       </c>
       <c r="B55" t="inlineStr"/>
       <c r="C55" t="n">
-        <v>1</v>
+        <v>5163</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>1 [0,2]</t>
+          <t>0 [0,1]</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>1 [0,2]</t>
+          <t>0 [0,1]</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>1</v>
+        <v>3716</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>1 [0,2]</t>
+          <t>0 [0,1]</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>1 [0,2]</t>
+          <t>0 [0,1]</t>
         </is>
       </c>
       <c r="I55" t="n">
-        <v>1</v>
+        <v>2789</v>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>1 [0,2]</t>
+          <t>0 [0,1]</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>1 [0,2]</t>
+          <t>0 [0,1]</t>
         </is>
       </c>
       <c r="L55" t="n">
-        <v>1</v>
+        <v>2157</v>
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>1 [0,2]</t>
+          <t>0 [0,1]</t>
         </is>
       </c>
       <c r="N55" t="inlineStr">
         <is>
-          <t>1 [0,2]</t>
+          <t>0 [0,1]</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>SOFA (day), median [Q1,Q3]</t>
+          <t>SOFA: Cardiovascular (admission), median [Q1,Q3]</t>
         </is>
       </c>
       <c r="B56" t="inlineStr"/>
       <c r="C56" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>5.0 [3.0,8.0]</t>
+          <t>1 [1,3]</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>5.0 [3.0,8.0]</t>
+          <t>1 [1,3]</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>5.0 [3.0,7.0]</t>
+          <t>1 [1,3]</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>5.0 [3.0,7.0]</t>
+          <t>1 [1,3]</t>
         </is>
       </c>
       <c r="I56" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>5.0 [2.0,7.0]</t>
+          <t>1 [1,4]</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>5.0 [3.0,7.0]</t>
+          <t>1 [1,4]</t>
         </is>
       </c>
       <c r="L56" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>4.0 [2.0,7.0]</t>
+          <t>1 [1,4]</t>
         </is>
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t>4.0 [2.0,7.0]</t>
+          <t>1 [1,4]</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>SOFA: Respiratory (day), median [Q1,Q3]</t>
+          <t>SOFA: CNS (admission), median [Q1,Q3]</t>
         </is>
       </c>
       <c r="B57" t="inlineStr"/>
       <c r="C57" t="n">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>0.0 [0.0,2.0]</t>
+          <t>0 [0,1]</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>1.0 [0.0,2.0]</t>
+          <t>0 [0,1]</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>0.0 [0.0,2.0]</t>
+          <t>0 [0,1]</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>0.0 [0.0,2.0]</t>
+          <t>0 [0,1]</t>
         </is>
       </c>
       <c r="I57" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>0.0 [0.0,2.0]</t>
+          <t>0 [0,1]</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>0.0 [0.0,2.0]</t>
+          <t>0 [0,1]</t>
         </is>
       </c>
       <c r="L57" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>0.0 [0.0,2.0]</t>
+          <t>0 [0,2]</t>
         </is>
       </c>
       <c r="N57" t="inlineStr">
         <is>
-          <t>0.0 [0.0,2.0]</t>
+          <t>0 [0,1]</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>SOFA: Coagulation (day), median [Q1,Q3]</t>
+          <t>SOFA: Renal (admission), median [Q1,Q3]</t>
         </is>
       </c>
       <c r="B58" t="inlineStr"/>
       <c r="C58" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>0.0 [0.0,1.0]</t>
+          <t>1 [0,2]</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>0.0 [0.0,1.0]</t>
+          <t>1 [0,2]</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>0.0 [0.0,1.0]</t>
+          <t>1 [0,2]</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>0.0 [0.0,1.0]</t>
+          <t>1 [0,2]</t>
         </is>
       </c>
       <c r="I58" t="n">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>0.0 [0.0,1.0]</t>
+          <t>1 [0,2]</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>0.0 [0.0,1.0]</t>
+          <t>1 [0,2]</t>
         </is>
       </c>
       <c r="L58" t="n">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>0.0 [0.0,1.0]</t>
+          <t>1 [0,2]</t>
         </is>
       </c>
       <c r="N58" t="inlineStr">
         <is>
-          <t>0.0 [0.0,1.0]</t>
+          <t>1 [0,2]</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>SOFA: Liver (day), median [Q1,Q3]</t>
+          <t>SOFA (day), median [Q1,Q3]</t>
         </is>
       </c>
       <c r="B59" t="inlineStr"/>
@@ -3841,12 +3853,12 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>0.0 [0.0,0.0]</t>
+          <t>5.0 [3.0,8.0]</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>0.0 [0.0,0.0]</t>
+          <t>5.0 [3.0,8.0]</t>
         </is>
       </c>
       <c r="F59" t="n">
@@ -3854,12 +3866,12 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>0.0 [0.0,0.0]</t>
+          <t>5.0 [3.0,7.0]</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>0.0 [0.0,0.0]</t>
+          <t>5.0 [3.0,7.0]</t>
         </is>
       </c>
       <c r="I59" t="n">
@@ -3867,12 +3879,12 @@
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>0.0 [0.0,0.0]</t>
+          <t>5.0 [2.0,7.0]</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>0.0 [0.0,0.0]</t>
+          <t>5.0 [3.0,7.0]</t>
         </is>
       </c>
       <c r="L59" t="n">
@@ -3880,19 +3892,19 @@
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>0.0 [0.0,0.0]</t>
+          <t>4.0 [2.0,7.0]</t>
         </is>
       </c>
       <c r="N59" t="inlineStr">
         <is>
-          <t>0.0 [0.0,0.0]</t>
+          <t>4.0 [2.0,7.0]</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>SOFA: Cardiovascular (day), median [Q1,Q3]</t>
+          <t>SOFA: Respiratory (day), median [Q1,Q3]</t>
         </is>
       </c>
       <c r="B60" t="inlineStr"/>
@@ -3901,12 +3913,12 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>1.0 [1.0,3.0]</t>
+          <t>0.0 [0.0,2.0]</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>1.0 [1.0,3.0]</t>
+          <t>1.0 [0.0,2.0]</t>
         </is>
       </c>
       <c r="F60" t="n">
@@ -3914,12 +3926,12 @@
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>1.0 [1.0,3.0]</t>
+          <t>0.0 [0.0,2.0]</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>1.0 [1.0,3.0]</t>
+          <t>0.0 [0.0,2.0]</t>
         </is>
       </c>
       <c r="I60" t="n">
@@ -3927,12 +3939,12 @@
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>1.0 [0.0,2.0]</t>
+          <t>0.0 [0.0,2.0]</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>1.0 [1.0,1.0]</t>
+          <t>0.0 [0.0,2.0]</t>
         </is>
       </c>
       <c r="L60" t="n">
@@ -3940,19 +3952,19 @@
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>1.0 [0.0,1.0]</t>
+          <t>0.0 [0.0,2.0]</t>
         </is>
       </c>
       <c r="N60" t="inlineStr">
         <is>
-          <t>1.0 [1.0,1.0]</t>
+          <t>0.0 [0.0,2.0]</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>SOFA: CNS (day), median [Q1,Q3]</t>
+          <t>SOFA: Coagulation (day), median [Q1,Q3]</t>
         </is>
       </c>
       <c r="B61" t="inlineStr"/>
@@ -4012,7 +4024,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>SOFA: Renal (day), median [Q1,Q3]</t>
+          <t>SOFA: Liver (day), median [Q1,Q3]</t>
         </is>
       </c>
       <c r="B62" t="inlineStr"/>
@@ -4021,12 +4033,12 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>1.0 [0.0,2.0]</t>
+          <t>0.0 [0.0,0.0]</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>0.0 [0.0,1.0]</t>
+          <t>0.0 [0.0,0.0]</t>
         </is>
       </c>
       <c r="F62" t="n">
@@ -4034,12 +4046,12 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>1.0 [0.0,2.0]</t>
+          <t>0.0 [0.0,0.0]</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>0.0 [0.0,2.0]</t>
+          <t>0.0 [0.0,0.0]</t>
         </is>
       </c>
       <c r="I62" t="n">
@@ -4047,12 +4059,12 @@
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>1.0 [0.0,2.0]</t>
+          <t>0.0 [0.0,0.0]</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>0.0 [0.0,2.0]</t>
+          <t>0.0 [0.0,0.0]</t>
         </is>
       </c>
       <c r="L62" t="n">
@@ -4060,919 +4072,919 @@
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>1.0 [0.0,2.0]</t>
+          <t>0.0 [0.0,0.0]</t>
         </is>
       </c>
       <c r="N62" t="inlineStr">
         <is>
-          <t>0.0 [0.0,2.0]</t>
+          <t>0.0 [0.0,0.0]</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Fluids Volume (day), median [Q1,Q3]</t>
+          <t>SOFA: Cardiovascular (day), median [Q1,Q3]</t>
         </is>
       </c>
       <c r="B63" t="inlineStr"/>
       <c r="C63" t="n">
-        <v>4731</v>
+        <v>15</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>729 [246,1498]</t>
+          <t>1.0 [1.0,3.0]</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>650 [210,1463]</t>
+          <t>1.0 [1.0,3.0]</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>3219</v>
+        <v>14</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>608 [242,1500]</t>
+          <t>1.0 [1.0,3.0]</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>601 [238,1414]</t>
+          <t>1.0 [1.0,3.0]</t>
         </is>
       </c>
       <c r="I63" t="n">
-        <v>2462</v>
+        <v>16</v>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>553 [242,1250]</t>
+          <t>1.0 [0.0,2.0]</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>532 [234,1165]</t>
+          <t>1.0 [1.0,1.0]</t>
         </is>
       </c>
       <c r="L63" t="n">
-        <v>1923</v>
+        <v>16</v>
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>495 [200,1033]</t>
+          <t>1.0 [0.0,1.0]</t>
         </is>
       </c>
       <c r="N63" t="inlineStr">
         <is>
-          <t>500 [224,1038]</t>
+          <t>1.0 [1.0,1.0]</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Fluids Volume (whole stay), median [Q1,Q3]</t>
+          <t>SOFA: CNS (day), median [Q1,Q3]</t>
         </is>
       </c>
       <c r="B64" t="inlineStr"/>
       <c r="C64" t="n">
-        <v>309</v>
+        <v>15</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>2648 [994,5920]</t>
+          <t>0.0 [0.0,1.0]</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>2369 [817,5431]</t>
+          <t>0.0 [0.0,1.0]</t>
         </is>
       </c>
       <c r="F64" t="n">
-        <v>144</v>
+        <v>14</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>3460 [1437,7132]</t>
+          <t>0.0 [0.0,1.0]</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>3254 [1261,6823]</t>
+          <t>0.0 [0.0,1.0]</t>
         </is>
       </c>
       <c r="I64" t="n">
-        <v>70</v>
+        <v>16</v>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>4405 [2011,8575]</t>
+          <t>0.0 [0.0,1.0]</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>4132 [1773,8008]</t>
+          <t>0.0 [0.0,1.0]</t>
         </is>
       </c>
       <c r="L64" t="n">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>5241 [2500,9579]</t>
+          <t>0.0 [0.0,1.0]</t>
         </is>
       </c>
       <c r="N64" t="inlineStr">
         <is>
-          <t>4938 [2351,9048]</t>
+          <t>0.0 [0.0,1.0]</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Fluids Volume (whole stay, normalized by ICU LOS), median [Q1,Q3]</t>
+          <t>SOFA: Renal (day), median [Q1,Q3]</t>
         </is>
       </c>
       <c r="B65" t="inlineStr"/>
       <c r="C65" t="n">
-        <v>309</v>
+        <v>15</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>506.2 [226.7,963.1]</t>
+          <t>1.0 [0.0,2.0]</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>477.0 [204.8,905.2]</t>
+          <t>0.0 [0.0,1.0]</t>
         </is>
       </c>
       <c r="F65" t="n">
-        <v>144</v>
+        <v>14</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>516.0 [251.4,928.5]</t>
+          <t>1.0 [0.0,2.0]</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>490.4 [227.6,883.4]</t>
+          <t>0.0 [0.0,2.0]</t>
         </is>
       </c>
       <c r="I65" t="n">
-        <v>70</v>
+        <v>16</v>
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>532.7 [276.3,912.8]</t>
+          <t>1.0 [0.0,2.0]</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>505.5 [255.0,870.4]</t>
+          <t>0.0 [0.0,2.0]</t>
         </is>
       </c>
       <c r="L65" t="n">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>543.2 [291.7,925.1]</t>
+          <t>1.0 [0.0,2.0]</t>
         </is>
       </c>
       <c r="N65" t="inlineStr">
         <is>
-          <t>522.8 [278.3,863.5]</t>
+          <t>0.0 [0.0,2.0]</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>FiO2 (mean %, first 24h), median [Q1,Q3]</t>
+          <t>Fluids Volume (day), median [Q1,Q3]</t>
         </is>
       </c>
       <c r="B66" t="inlineStr"/>
       <c r="C66" t="n">
-        <v>7672</v>
+        <v>4731</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>50 [40,60]</t>
+          <t>729 [246,1498]</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>50 [42,65]</t>
+          <t>650 [210,1463]</t>
         </is>
       </c>
       <c r="F66" t="n">
-        <v>5544</v>
+        <v>3219</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>43 [40,53]</t>
+          <t>608 [242,1500]</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>50 [40,58]</t>
+          <t>601 [238,1414]</t>
         </is>
       </c>
       <c r="I66" t="n">
-        <v>4230</v>
+        <v>2462</v>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>42 [40,51]</t>
+          <t>553 [242,1250]</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>48 [40,55]</t>
+          <t>532 [234,1165]</t>
         </is>
       </c>
       <c r="L66" t="n">
-        <v>3237</v>
+        <v>1923</v>
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>40 [40,50]</t>
+          <t>495 [200,1033]</t>
         </is>
       </c>
       <c r="N66" t="inlineStr">
         <is>
-          <t>47 [40,55]</t>
+          <t>500 [224,1038]</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>MV Time (duration in the stay, hours), median [Q1,Q3]</t>
+          <t>Fluids Volume (whole stay), median [Q1,Q3]</t>
         </is>
       </c>
       <c r="B67" t="inlineStr"/>
       <c r="C67" t="n">
-        <v>5341</v>
+        <v>309</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>39.0 [17.0,86.2]</t>
+          <t>2648 [994,5920]</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>32.0 [15.0,76.0]</t>
+          <t>2369 [817,5431]</t>
         </is>
       </c>
       <c r="F67" t="n">
-        <v>3276</v>
+        <v>144</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>49.0 [21.8,100.0]</t>
+          <t>3460 [1437,7132]</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>42.0 [18.0,91.0]</t>
+          <t>3254 [1261,6823]</t>
         </is>
       </c>
       <c r="I67" t="n">
-        <v>2053</v>
+        <v>70</v>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>60.0 [25.0,115.0]</t>
+          <t>4405 [2011,8575]</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>51.0 [21.0,104.0]</t>
+          <t>4132 [1773,8008]</t>
         </is>
       </c>
       <c r="L67" t="n">
-        <v>1301</v>
+        <v>30</v>
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>70.0 [30.0,131.2]</t>
+          <t>5241 [2500,9579]</t>
         </is>
       </c>
       <c r="N67" t="inlineStr">
         <is>
-          <t>61.0 [25.0,117.0]</t>
+          <t>4938 [2351,9048]</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>MV Time (duration in the stay, % of ICU LOS), median [Q1,Q3]</t>
+          <t>Fluids Volume (whole stay, normalized by ICU LOS), median [Q1,Q3]</t>
         </is>
       </c>
       <c r="B68" t="inlineStr"/>
       <c r="C68" t="n">
-        <v>5341</v>
+        <v>309</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>0.30 [0.14,0.50]</t>
+          <t>506.2 [226.7,963.1]</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>0.26 [0.13,0.45]</t>
+          <t>477.0 [204.8,905.2]</t>
         </is>
       </c>
       <c r="F68" t="n">
-        <v>3276</v>
+        <v>144</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>0.30 [0.14,0.50]</t>
+          <t>516.0 [251.4,928.5]</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>0.25 [0.12,0.45]</t>
+          <t>490.4 [227.6,883.4]</t>
         </is>
       </c>
       <c r="I68" t="n">
-        <v>2053</v>
+        <v>70</v>
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>0.30 [0.14,0.50]</t>
+          <t>532.7 [276.3,912.8]</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>0.26 [0.12,0.46]</t>
+          <t>505.5 [255.0,870.4]</t>
         </is>
       </c>
       <c r="L68" t="n">
-        <v>1301</v>
+        <v>30</v>
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>0.31 [0.14,0.50]</t>
+          <t>543.2 [291.7,925.1]</t>
         </is>
       </c>
       <c r="N68" t="inlineStr">
         <is>
-          <t>0.27 [0.12,0.46]</t>
+          <t>522.8 [278.3,863.5]</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>MV Initiation (offset, hours), median [Q1,Q3]</t>
+          <t>FiO2 (mean %), median [Q1,Q3]</t>
         </is>
       </c>
       <c r="B69" t="inlineStr"/>
       <c r="C69" t="n">
-        <v>5341</v>
+        <v>7672</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>2.0 [1.0,8.0]</t>
+          <t>50 [40,60]</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>3.0 [1.0,8.0]</t>
+          <t>50 [42,65]</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>3276</v>
+        <v>5544</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>2.0 [1.0,10.0]</t>
+          <t>43 [40,53]</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>3.0 [1.0,10.0]</t>
+          <t>50 [40,58]</t>
         </is>
       </c>
       <c r="I69" t="n">
-        <v>2053</v>
+        <v>4230</v>
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>2.5 [1.0,12.0]</t>
+          <t>42 [40,51]</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>3.0 [1.0,13.0]</t>
+          <t>48 [40,55]</t>
         </is>
       </c>
       <c r="L69" t="n">
-        <v>1301</v>
+        <v>3237</v>
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>3.0 [1.0,13.2]</t>
+          <t>40 [40,50]</t>
         </is>
       </c>
       <c r="N69" t="inlineStr">
         <is>
-          <t>3.0 [1.0,17.0]</t>
+          <t>47 [40,55]</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>RRT Initiation (offset, hours), median [Q1,Q3]</t>
+          <t>MV_time_abs_hours, median [Q1,Q3]</t>
         </is>
       </c>
       <c r="B70" t="inlineStr"/>
       <c r="C70" t="n">
-        <v>11653</v>
+        <v>5341</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>16.0 [4.0,41.0]</t>
+          <t>39.0 [17.0,86.2]</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>25.0 [5.5,63.0]</t>
+          <t>32.0 [15.0,76.0]</t>
         </is>
       </c>
       <c r="F70" t="n">
-        <v>8554</v>
+        <v>3276</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>18.5 [4.0,55.0]</t>
+          <t>49.0 [21.8,100.0]</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>27.0 [6.0,69.0]</t>
+          <t>42.0 [18.0,91.0]</t>
         </is>
       </c>
       <c r="I70" t="n">
-        <v>6488</v>
+        <v>2053</v>
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>22.0 [4.7,62.5]</t>
+          <t>60.0 [25.0,115.0]</t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>32.0 [7.0,76.0]</t>
+          <t>51.0 [21.0,104.0]</t>
         </is>
       </c>
       <c r="L70" t="n">
-        <v>5099</v>
+        <v>1301</v>
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>22.5 [5.0,73.2]</t>
+          <t>70.0 [30.0,131.2]</t>
         </is>
       </c>
       <c r="N70" t="inlineStr">
         <is>
-          <t>38.5 [8.8,87.0]</t>
+          <t>61.0 [25.0,117.0]</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Vasopressor Initiation (offset, hours), median [Q1,Q3]</t>
+          <t>MV Time (duration in the stay, % of ICU LOS), median [Q1,Q3]</t>
         </is>
       </c>
       <c r="B71" t="inlineStr"/>
       <c r="C71" t="n">
-        <v>5827</v>
+        <v>5341</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>3.0 [1.0,12.0]</t>
+          <t>0.30 [0.14,0.50]</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>3.0 [1.0,10.0]</t>
+          <t>0.26 [0.13,0.45]</t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>3992</v>
+        <v>3276</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>4.0 [1.0,17.0]</t>
+          <t>0.30 [0.14,0.50]</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>4.0 [1.0,14.0]</t>
+          <t>0.25 [0.12,0.45]</t>
         </is>
       </c>
       <c r="I71" t="n">
-        <v>2858</v>
+        <v>2053</v>
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>4.0 [1.0,22.0]</t>
+          <t>0.30 [0.14,0.50]</t>
         </is>
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>4.0 [1.0,19.0]</t>
+          <t>0.26 [0.12,0.46]</t>
         </is>
       </c>
       <c r="L71" t="n">
-        <v>2098</v>
+        <v>1301</v>
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>5.0 [1.0,25.5]</t>
+          <t>0.31 [0.14,0.50]</t>
         </is>
       </c>
       <c r="N71" t="inlineStr">
         <is>
-          <t>4.0 [1.0,23.0]</t>
+          <t>0.27 [0.12,0.46]</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Vasopressor Time (duration in the stay, hours), median [Q1,Q3]</t>
+          <t>MV_init_offset_abs_hours, median [Q1,Q3]</t>
         </is>
       </c>
       <c r="B72" t="inlineStr"/>
       <c r="C72" t="n">
-        <v>5827</v>
+        <v>5341</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>29.0 [10.0,65.0]</t>
+          <t>2.0 [1.0,8.0]</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>29.0 [11.0,62.0]</t>
+          <t>3.0 [1.0,8.0]</t>
         </is>
       </c>
       <c r="F72" t="n">
-        <v>3992</v>
+        <v>3276</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>37.0 [11.0,79.8]</t>
+          <t>2.0 [1.0,10.0]</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>37.0 [14.0,76.0]</t>
+          <t>3.0 [1.0,10.0]</t>
         </is>
       </c>
       <c r="I72" t="n">
-        <v>2858</v>
+        <v>2053</v>
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>45.0 [14.0,94.0]</t>
+          <t>2.5 [1.0,12.0]</t>
         </is>
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>44.0 [17.0,92.0]</t>
+          <t>3.0 [1.0,13.0]</t>
         </is>
       </c>
       <c r="L72" t="n">
-        <v>2098</v>
+        <v>1301</v>
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>48.0 [16.0,107.0]</t>
+          <t>3.0 [1.0,13.2]</t>
         </is>
       </c>
       <c r="N72" t="inlineStr">
         <is>
-          <t>51.0 [19.0,103.0]</t>
+          <t>3.0 [1.0,17.0]</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Vasopressor Time (duration in the stay, % of ICU LOS), median [Q1,Q3]</t>
+          <t>RRT_init_offset_abs_hours, median [Q1,Q3]</t>
         </is>
       </c>
       <c r="B73" t="inlineStr"/>
       <c r="C73" t="n">
-        <v>5827</v>
+        <v>11653</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>0.23 [0.08,0.48]</t>
+          <t>16.0 [4.0,41.0]</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>0.25 [0.09,0.47]</t>
+          <t>25.0 [5.5,63.0]</t>
         </is>
       </c>
       <c r="F73" t="n">
-        <v>3992</v>
+        <v>8554</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>0.22 [0.07,0.46]</t>
+          <t>18.5 [4.0,55.0]</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>0.24 [0.09,0.47]</t>
+          <t>27.0 [6.0,69.0]</t>
         </is>
       </c>
       <c r="I73" t="n">
-        <v>2858</v>
+        <v>6488</v>
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>0.21 [0.07,0.46]</t>
+          <t>22.0 [4.7,62.5]</t>
         </is>
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>0.24 [0.08,0.46]</t>
+          <t>32.0 [7.0,76.0]</t>
         </is>
       </c>
       <c r="L73" t="n">
-        <v>2098</v>
+        <v>5099</v>
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>0.21 [0.06,0.45]</t>
+          <t>22.5 [5.0,73.2]</t>
         </is>
       </c>
       <c r="N73" t="inlineStr">
         <is>
-          <t>0.23 [0.08,0.45]</t>
+          <t>38.5 [8.8,87.0]</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Respiratory Rate (mean), median [Q1,Q3]</t>
+          <t>VP_init_offset_abs_hours, median [Q1,Q3]</t>
         </is>
       </c>
       <c r="B74" t="inlineStr"/>
       <c r="C74" t="n">
-        <v>24</v>
+        <v>5827</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>19.4 [17.0,22.6]</t>
+          <t>3.0 [1.0,12.0]</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>19.1 [16.8,22.0]</t>
+          <t>3.0 [1.0,10.0]</t>
         </is>
       </c>
       <c r="F74" t="n">
-        <v>17</v>
+        <v>3992</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>19.6 [17.0,22.5]</t>
+          <t>4.0 [1.0,17.0]</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>19.4 [17.2,22.2]</t>
+          <t>4.0 [1.0,14.0]</t>
         </is>
       </c>
       <c r="I74" t="n">
-        <v>17</v>
+        <v>2858</v>
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>19.7 [17.3,22.4]</t>
+          <t>4.0 [1.0,22.0]</t>
         </is>
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>19.5 [17.4,22.2]</t>
+          <t>4.0 [1.0,19.0]</t>
         </is>
       </c>
       <c r="L74" t="n">
-        <v>12</v>
+        <v>2098</v>
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>19.8 [17.5,22.4]</t>
+          <t>5.0 [1.0,25.5]</t>
         </is>
       </c>
       <c r="N74" t="inlineStr">
         <is>
-          <t>19.7 [17.6,22.2]</t>
+          <t>4.0 [1.0,23.0]</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Mean Blood Pressure (mean), median [Q1,Q3]</t>
+          <t>VP_time_abs_hours, median [Q1,Q3]</t>
         </is>
       </c>
       <c r="B75" t="inlineStr"/>
       <c r="C75" t="n">
-        <v>18</v>
+        <v>5827</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>77.5 [71.1,85.4]</t>
+          <t>29.0 [10.0,65.0]</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>74.7 [69.4,81.6]</t>
+          <t>29.0 [11.0,62.0]</t>
         </is>
       </c>
       <c r="F75" t="n">
-        <v>15</v>
+        <v>3992</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>78.2 [71.9,86.1]</t>
+          <t>37.0 [11.0,79.8]</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>75.0 [69.9,81.9]</t>
+          <t>37.0 [14.0,76.0]</t>
         </is>
       </c>
       <c r="I75" t="n">
-        <v>15</v>
+        <v>2858</v>
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>78.9 [72.6,86.9]</t>
+          <t>45.0 [14.0,94.0]</t>
         </is>
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>75.8 [70.5,82.6]</t>
+          <t>44.0 [17.0,92.0]</t>
         </is>
       </c>
       <c r="L75" t="n">
-        <v>11</v>
+        <v>2098</v>
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>79.1 [72.8,86.6]</t>
+          <t>48.0 [16.0,107.0]</t>
         </is>
       </c>
       <c r="N75" t="inlineStr">
         <is>
-          <t>76.3 [71.1,83.4]</t>
+          <t>51.0 [19.0,103.0]</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Temperature (mean, first 24h), median [Q1,Q3]</t>
+          <t>Vasopressor Time (duration in the stay, % of ICU LOS), median [Q1,Q3]</t>
         </is>
       </c>
       <c r="B76" t="inlineStr"/>
       <c r="C76" t="n">
-        <v>693</v>
+        <v>5827</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>36.9 [36.6,37.3]</t>
+          <t>0.23 [0.08,0.48]</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>36.9 [36.6,37.2]</t>
+          <t>0.25 [0.09,0.47]</t>
         </is>
       </c>
       <c r="F76" t="n">
-        <v>322</v>
+        <v>3992</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>37.0 [36.7,37.3]</t>
+          <t>0.22 [0.07,0.46]</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>36.9 [36.7,37.3]</t>
+          <t>0.24 [0.09,0.47]</t>
         </is>
       </c>
       <c r="I76" t="n">
-        <v>184</v>
+        <v>2858</v>
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>37.0 [36.7,37.3]</t>
+          <t>0.21 [0.07,0.46]</t>
         </is>
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>37.0 [36.7,37.3]</t>
+          <t>0.24 [0.08,0.46]</t>
         </is>
       </c>
       <c r="L76" t="n">
-        <v>118</v>
+        <v>2098</v>
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>37.0 [36.7,37.4]</t>
+          <t>0.21 [0.06,0.45]</t>
         </is>
       </c>
       <c r="N76" t="inlineStr">
         <is>
-          <t>37.0 [36.7,37.4]</t>
+          <t>0.23 [0.08,0.45]</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>SpO2 (%, mean), median [Q1,Q3]</t>
+          <t>Respiratory Rate (mean), median [Q1,Q3]</t>
         </is>
       </c>
       <c r="B77" t="inlineStr"/>
       <c r="C77" t="n">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>98.0 [96.3,99.2]</t>
+          <t>19.4 [17.0,22.6]</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>97.2 [95.8,98.6]</t>
+          <t>19.1 [16.8,22.0]</t>
         </is>
       </c>
       <c r="F77" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>97.7 [96.3,99.0]</t>
+          <t>19.6 [17.0,22.5]</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>97.0 [95.7,98.1]</t>
+          <t>19.4 [17.2,22.2]</t>
         </is>
       </c>
       <c r="I77" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>97.7 [96.3,98.8]</t>
+          <t>19.7 [17.3,22.4]</t>
         </is>
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>96.9 [95.7,98.0]</t>
+          <t>19.5 [17.4,22.2]</t>
         </is>
       </c>
       <c r="L77" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>97.7 [96.3,98.8]</t>
+          <t>19.8 [17.5,22.4]</t>
         </is>
       </c>
       <c r="N77" t="inlineStr">
         <is>
-          <t>96.9 [95.7,97.9]</t>
+          <t>19.7 [17.6,22.2]</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Heart Rate (mean), median [Q1,Q3]</t>
+          <t>Mean Blood Pressure (mean), median [Q1,Q3]</t>
         </is>
       </c>
       <c r="B78" t="inlineStr"/>
@@ -4981,12 +4993,12 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>87.5 [76.4,100.6]</t>
+          <t>77.5 [71.1,85.4]</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>85.8 [75.8,97.9]</t>
+          <t>74.7 [69.4,81.6]</t>
         </is>
       </c>
       <c r="F78" t="n">
@@ -4994,12 +5006,12 @@
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>88.0 [77.2,99.7]</t>
+          <t>78.2 [71.9,86.1]</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>86.3 [76.7,97.4]</t>
+          <t>75.0 [69.9,81.9]</t>
         </is>
       </c>
       <c r="I78" t="n">
@@ -5007,12 +5019,12 @@
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>87.5 [77.7,98.5]</t>
+          <t>78.9 [72.6,86.9]</t>
         </is>
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>86.7 [77.1,97.2]</t>
+          <t>75.8 [70.5,82.6]</t>
         </is>
       </c>
       <c r="L78" t="n">
@@ -5020,610 +5032,790 @@
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>87.0 [77.8,97.4]</t>
+          <t>79.1 [72.8,86.6]</t>
         </is>
       </c>
       <c r="N78" t="inlineStr">
         <is>
-          <t>86.9 [77.4,96.7]</t>
+          <t>76.3 [71.1,83.4]</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>PaO2 (min), median [Q1,Q3]</t>
+          <t>Temperature (mean, first 24h), median [Q1,Q3]</t>
         </is>
       </c>
       <c r="B79" t="inlineStr"/>
       <c r="C79" t="n">
-        <v>4014</v>
+        <v>693</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>88.5 [69.0,124.0]</t>
+          <t>36.9 [36.6,37.3]</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>89.0 [72.0,118.0]</t>
+          <t>36.9 [36.6,37.2]</t>
         </is>
       </c>
       <c r="F79" t="n">
-        <v>2228</v>
+        <v>322</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>79.0 [64.0,108.0]</t>
+          <t>37.0 [36.7,37.3]</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>80.0 [66.0,103.0]</t>
+          <t>36.9 [36.7,37.3]</t>
         </is>
       </c>
       <c r="I79" t="n">
-        <v>1309</v>
+        <v>184</v>
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>75.0 [62.0,100.0]</t>
+          <t>37.0 [36.7,37.3]</t>
         </is>
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>76.0 [63.0,95.0]</t>
+          <t>37.0 [36.7,37.3]</t>
         </is>
       </c>
       <c r="L79" t="n">
-        <v>801</v>
+        <v>118</v>
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>73.0 [60.0,96.0]</t>
+          <t>37.0 [36.7,37.4]</t>
         </is>
       </c>
       <c r="N79" t="inlineStr">
         <is>
-          <t>72.0 [62.0,88.2]</t>
+          <t>37.0 [36.7,37.4]</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>PaCO2 (max), median [Q1,Q3]</t>
+          <t>SpO2 (%, mean), median [Q1,Q3]</t>
         </is>
       </c>
       <c r="B80" t="inlineStr"/>
       <c r="C80" t="n">
-        <v>4014</v>
+        <v>19</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>44.0 [37.0,52.0]</t>
+          <t>98.0 [96.3,99.2]</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>46.0 [39.0,53.0]</t>
+          <t>97.2 [95.8,98.6]</t>
         </is>
       </c>
       <c r="F80" t="n">
-        <v>2228</v>
+        <v>16</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>45.0 [39.0,53.0]</t>
+          <t>97.7 [96.3,99.0]</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>46.0 [40.0,54.0]</t>
+          <t>97.0 [95.7,98.1]</t>
         </is>
       </c>
       <c r="I80" t="n">
-        <v>1309</v>
+        <v>16</v>
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>46.0 [39.0,55.0]</t>
+          <t>97.7 [96.3,98.8]</t>
         </is>
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>47.0 [41.0,56.0]</t>
+          <t>96.9 [95.7,98.0]</t>
         </is>
       </c>
       <c r="L80" t="n">
-        <v>801</v>
+        <v>11</v>
       </c>
       <c r="M80" t="inlineStr">
         <is>
-          <t>47.0 [40.0,56.0]</t>
+          <t>97.7 [96.3,98.8]</t>
         </is>
       </c>
       <c r="N80" t="inlineStr">
         <is>
-          <t>48.0 [42.0,56.0]</t>
+          <t>96.9 [95.7,97.9]</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>pH (min), median [Q1,Q3]</t>
+          <t>Heart Rate (mean), median [Q1,Q3]</t>
         </is>
       </c>
       <c r="B81" t="inlineStr"/>
       <c r="C81" t="n">
-        <v>2267</v>
+        <v>18</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>7.3 [7.2,7.4]</t>
+          <t>87.5 [76.4,100.6]</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>7.3 [7.2,7.4]</t>
+          <t>85.8 [75.8,97.9]</t>
         </is>
       </c>
       <c r="F81" t="n">
-        <v>1151</v>
+        <v>15</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>7.3 [7.2,7.4]</t>
+          <t>88.0 [77.2,99.7]</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>7.3 [7.2,7.4]</t>
+          <t>86.3 [76.7,97.4]</t>
         </is>
       </c>
       <c r="I81" t="n">
-        <v>648</v>
+        <v>15</v>
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>7.3 [7.2,7.4]</t>
+          <t>87.5 [77.7,98.5]</t>
         </is>
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>7.3 [7.2,7.4]</t>
+          <t>86.7 [77.1,97.2]</t>
         </is>
       </c>
       <c r="L81" t="n">
-        <v>365</v>
+        <v>11</v>
       </c>
       <c r="M81" t="inlineStr">
         <is>
-          <t>7.3 [7.2,7.4]</t>
+          <t>87.0 [77.8,97.4]</t>
         </is>
       </c>
       <c r="N81" t="inlineStr">
         <is>
-          <t>7.3 [7.2,7.4]</t>
+          <t>86.9 [77.4,96.7]</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Glucose (max), median [Q1,Q3]</t>
+          <t>PaO2 (min), median [Q1,Q3]</t>
         </is>
       </c>
       <c r="B82" t="inlineStr"/>
       <c r="C82" t="n">
-        <v>67</v>
+        <v>4014</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>154.0 [122.0,218.0]</t>
+          <t>88.5 [69.0,124.0]</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>147.0 [120.0,194.0]</t>
+          <t>89.0 [72.0,118.0]</t>
         </is>
       </c>
       <c r="F82" t="n">
-        <v>8</v>
+        <v>2228</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>172.0 [138.0,242.0]</t>
+          <t>79.0 [64.0,108.0]</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>163.0 [135.0,214.0]</t>
+          <t>80.0 [66.0,103.0]</t>
         </is>
       </c>
       <c r="I82" t="n">
-        <v>6</v>
+        <v>1309</v>
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>186.0 [147.0,254.0]</t>
+          <t>75.0 [62.0,100.0]</t>
         </is>
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>172.0 [143.0,226.0]</t>
+          <t>76.0 [63.0,95.0]</t>
         </is>
       </c>
       <c r="L82" t="n">
-        <v>3</v>
+        <v>801</v>
       </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>192.0 [152.0,266.0]</t>
+          <t>73.0 [60.0,96.0]</t>
         </is>
       </c>
       <c r="N82" t="inlineStr">
         <is>
-          <t>179.0 [149.0,238.0]</t>
+          <t>72.0 [62.0,88.2]</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Sodium (min), median [Q1,Q3]</t>
+          <t>PaCO2 (max), median [Q1,Q3]</t>
         </is>
       </c>
       <c r="B83" t="inlineStr"/>
       <c r="C83" t="n">
-        <v>27</v>
+        <v>4014</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>137.0 [134.0,140.0]</t>
+          <t>44.0 [37.0,52.0]</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>137.0 [134.0,140.0]</t>
+          <t>46.0 [39.0,53.0]</t>
         </is>
       </c>
       <c r="F83" t="n">
-        <v>7</v>
+        <v>2228</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>136.0 [133.0,139.0]</t>
+          <t>45.0 [39.0,53.0]</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>136.0 [133.0,139.0]</t>
+          <t>46.0 [40.0,54.0]</t>
         </is>
       </c>
       <c r="I83" t="n">
-        <v>6</v>
+        <v>1309</v>
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>135.0 [132.0,138.0]</t>
+          <t>46.0 [39.0,55.0]</t>
         </is>
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>135.0 [132.0,138.0]</t>
+          <t>47.0 [41.0,56.0]</t>
         </is>
       </c>
       <c r="L83" t="n">
-        <v>3</v>
+        <v>801</v>
       </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>135.0 [132.0,138.0]</t>
+          <t>47.0 [40.0,56.0]</t>
         </is>
       </c>
       <c r="N83" t="inlineStr">
         <is>
-          <t>135.0 [132.0,138.0]</t>
+          <t>48.0 [42.0,56.0]</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Potassium (max), median [Q1,Q3]</t>
+          <t>pH (min), median [Q1,Q3]</t>
         </is>
       </c>
       <c r="B84" t="inlineStr"/>
       <c r="C84" t="n">
-        <v>34</v>
+        <v>2267</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>4.5 [4.1,5.2]</t>
+          <t>7.3 [7.2,7.4]</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>4.5 [4.1,5.0]</t>
+          <t>7.3 [7.2,7.4]</t>
         </is>
       </c>
       <c r="F84" t="n">
-        <v>7</v>
+        <v>1151</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>4.7 [4.3,5.4]</t>
+          <t>7.3 [7.2,7.4]</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>4.6 [4.3,5.1]</t>
+          <t>7.3 [7.2,7.4]</t>
         </is>
       </c>
       <c r="I84" t="n">
-        <v>6</v>
+        <v>648</v>
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>4.8 [4.4,5.5]</t>
+          <t>7.3 [7.2,7.4]</t>
         </is>
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>4.7 [4.3,5.2]</t>
+          <t>7.3 [7.2,7.4]</t>
         </is>
       </c>
       <c r="L84" t="n">
-        <v>3</v>
+        <v>365</v>
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>4.8 [4.4,5.6]</t>
+          <t>7.3 [7.2,7.4]</t>
         </is>
       </c>
       <c r="N84" t="inlineStr">
         <is>
-          <t>4.8 [4.4,5.3]</t>
+          <t>7.3 [7.2,7.4]</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Cortisol (min), median [Q1,Q3]</t>
+          <t>Glucose (max), median [Q1,Q3]</t>
         </is>
       </c>
       <c r="B85" t="inlineStr"/>
       <c r="C85" t="n">
-        <v>12719</v>
+        <v>67</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>19.0 [13.5,30.9]</t>
+          <t>154.0 [122.0,218.0]</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>22.0 [12.5,33.9]</t>
+          <t>147.0 [120.0,194.0]</t>
         </is>
       </c>
       <c r="F85" t="n">
-        <v>9588</v>
+        <v>8</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>18.2 [11.5,26.9]</t>
+          <t>172.0 [138.0,242.0]</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>20.2 [13.2,31.3]</t>
+          <t>163.0 [135.0,214.0]</t>
         </is>
       </c>
       <c r="I85" t="n">
-        <v>7453</v>
+        <v>6</v>
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>17.9 [10.4,23.2]</t>
+          <t>186.0 [147.0,254.0]</t>
         </is>
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>20.0 [11.7,29.9]</t>
+          <t>172.0 [143.0,226.0]</t>
         </is>
       </c>
       <c r="L85" t="n">
-        <v>5990</v>
+        <v>3</v>
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>19.0 [10.5,33.9]</t>
+          <t>192.0 [152.0,266.0]</t>
         </is>
       </c>
       <c r="N85" t="inlineStr">
         <is>
-          <t>18.9 [9.1,28.9]</t>
+          <t>179.0 [149.0,238.0]</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Hemoglobin (min), median [Q1,Q3]</t>
+          <t>Sodium (min), median [Q1,Q3]</t>
         </is>
       </c>
       <c r="B86" t="inlineStr"/>
       <c r="C86" t="n">
-        <v>1753</v>
+        <v>27</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>9.8 [8.2,11.4]</t>
+          <t>137.0 [134.0,140.0]</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>10.0 [8.6,11.6]</t>
+          <t>137.0 [134.0,140.0]</t>
         </is>
       </c>
       <c r="F86" t="n">
-        <v>358</v>
+        <v>7</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>9.6 [8.3,11.1]</t>
+          <t>136.0 [133.0,139.0]</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>9.7 [8.5,11.1]</t>
+          <t>136.0 [133.0,139.0]</t>
         </is>
       </c>
       <c r="I86" t="n">
-        <v>245</v>
+        <v>6</v>
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>9.5 [8.2,10.8]</t>
+          <t>135.0 [132.0,138.0]</t>
         </is>
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>9.6 [8.4,10.9]</t>
+          <t>135.0 [132.0,138.0]</t>
         </is>
       </c>
       <c r="L86" t="n">
-        <v>178</v>
+        <v>3</v>
       </c>
       <c r="M86" t="inlineStr">
         <is>
-          <t>9.2 [8.1,10.7]</t>
+          <t>135.0 [132.0,138.0]</t>
         </is>
       </c>
       <c r="N86" t="inlineStr">
         <is>
-          <t>9.5 [8.4,10.8]</t>
+          <t>135.0 [132.0,138.0]</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Fibrinogen (min), median [Q1,Q3]</t>
+          <t>Potassium (max), median [Q1,Q3]</t>
         </is>
       </c>
       <c r="B87" t="inlineStr"/>
       <c r="C87" t="n">
-        <v>8424</v>
+        <v>34</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>226.0 [153.0,364.0]</t>
+          <t>4.5 [4.1,5.2]</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>228.5 [165.0,344.0]</t>
+          <t>4.5 [4.1,5.0]</t>
         </is>
       </c>
       <c r="F87" t="n">
-        <v>5895</v>
+        <v>7</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>242.0 [151.5,388.0]</t>
+          <t>4.7 [4.3,5.4]</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>242.0 [165.0,372.0]</t>
+          <t>4.6 [4.3,5.1]</t>
         </is>
       </c>
       <c r="I87" t="n">
-        <v>4340</v>
+        <v>6</v>
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>249.0 [153.5,387.5]</t>
+          <t>4.8 [4.4,5.5]</t>
         </is>
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>251.5 [164.2,390.0]</t>
+          <t>4.7 [4.3,5.2]</t>
         </is>
       </c>
       <c r="L87" t="n">
-        <v>3278</v>
+        <v>3</v>
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>249.0 [155.0,387.0]</t>
+          <t>4.8 [4.4,5.6]</t>
         </is>
       </c>
       <c r="N87" t="inlineStr">
         <is>
-          <t>260.0 [167.0,411.0]</t>
+          <t>4.8 [4.4,5.3]</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>INR (max), median [Q1,Q3]</t>
+          <t>Cortisol (min), median [Q1,Q3]</t>
         </is>
       </c>
       <c r="B88" t="inlineStr"/>
       <c r="C88" t="n">
+        <v>12719</v>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>19.0 [13.5,30.9]</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>22.0 [12.5,33.9]</t>
+        </is>
+      </c>
+      <c r="F88" t="n">
+        <v>9588</v>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>18.2 [11.5,26.9]</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>20.2 [13.2,31.3]</t>
+        </is>
+      </c>
+      <c r="I88" t="n">
+        <v>7453</v>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>17.9 [10.4,23.2]</t>
+        </is>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>20.0 [11.7,29.9]</t>
+        </is>
+      </c>
+      <c r="L88" t="n">
+        <v>5990</v>
+      </c>
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>19.0 [10.5,33.9]</t>
+        </is>
+      </c>
+      <c r="N88" t="inlineStr">
+        <is>
+          <t>18.9 [9.1,28.9]</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>Hemoglobin (min), median [Q1,Q3]</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr"/>
+      <c r="C89" t="n">
+        <v>1753</v>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>9.8 [8.2,11.4]</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>10.0 [8.6,11.6]</t>
+        </is>
+      </c>
+      <c r="F89" t="n">
+        <v>358</v>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>9.6 [8.3,11.1]</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>9.7 [8.5,11.1]</t>
+        </is>
+      </c>
+      <c r="I89" t="n">
+        <v>245</v>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>9.5 [8.2,10.8]</t>
+        </is>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>9.6 [8.4,10.9]</t>
+        </is>
+      </c>
+      <c r="L89" t="n">
+        <v>178</v>
+      </c>
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>9.2 [8.1,10.7]</t>
+        </is>
+      </c>
+      <c r="N89" t="inlineStr">
+        <is>
+          <t>9.5 [8.4,10.8]</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>Fibrinogen (min), median [Q1,Q3]</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr"/>
+      <c r="C90" t="n">
+        <v>8424</v>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>226.0 [153.0,364.0]</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>228.5 [165.0,344.0]</t>
+        </is>
+      </c>
+      <c r="F90" t="n">
+        <v>5895</v>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>242.0 [151.5,388.0]</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>242.0 [165.0,372.0]</t>
+        </is>
+      </c>
+      <c r="I90" t="n">
+        <v>4340</v>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>249.0 [153.5,387.5]</t>
+        </is>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>251.5 [164.2,390.0]</t>
+        </is>
+      </c>
+      <c r="L90" t="n">
+        <v>3278</v>
+      </c>
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>249.0 [155.0,387.0]</t>
+        </is>
+      </c>
+      <c r="N90" t="inlineStr">
+        <is>
+          <t>260.0 [167.0,411.0]</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>INR (max), median [Q1,Q3]</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr"/>
+      <c r="C91" t="n">
         <v>788</v>
       </c>
-      <c r="D88" t="inlineStr">
+      <c r="D91" t="inlineStr">
         <is>
           <t>1.4 [1.2,1.7]</t>
         </is>
       </c>
-      <c r="E88" t="inlineStr">
+      <c r="E91" t="inlineStr">
         <is>
           <t>1.4 [1.2,1.7]</t>
         </is>
       </c>
-      <c r="F88" t="n">
+      <c r="F91" t="n">
         <v>250</v>
       </c>
-      <c r="G88" t="inlineStr">
+      <c r="G91" t="inlineStr">
         <is>
           <t>1.4 [1.2,1.8]</t>
         </is>
       </c>
-      <c r="H88" t="inlineStr">
+      <c r="H91" t="inlineStr">
         <is>
           <t>1.4 [1.2,1.8]</t>
         </is>
       </c>
-      <c r="I88" t="n">
+      <c r="I91" t="n">
         <v>113</v>
       </c>
-      <c r="J88" t="inlineStr">
+      <c r="J91" t="inlineStr">
         <is>
           <t>1.4 [1.2,2.0]</t>
         </is>
       </c>
-      <c r="K88" t="inlineStr">
+      <c r="K91" t="inlineStr">
         <is>
           <t>1.4 [1.2,1.9]</t>
         </is>
       </c>
-      <c r="L88" t="n">
+      <c r="L91" t="n">
         <v>64</v>
       </c>
-      <c r="M88" t="inlineStr">
+      <c r="M91" t="inlineStr">
         <is>
           <t>1.4 [1.2,2.0]</t>
         </is>
       </c>
-      <c r="N88" t="inlineStr">
+      <c r="N91" t="inlineStr">
         <is>
           <t>1.5 [1.2,2.0]</t>
         </is>
